--- a/cat_year_totals.xlsx
+++ b/cat_year_totals.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanirobnett/Desktop/Project-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jill/Desktop/Data Analytics/homework/Bay Area Biotech/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A491CBA-B660-584D-B6F6-411FDEBC845F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17100" windowHeight="19000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17100" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,40 +30,40 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Total Funding Amount</t>
   </si>
   <si>
-    <t>Genetics Funding ($$)</t>
-  </si>
-  <si>
-    <t>Health Care Funding ($$)</t>
-  </si>
-  <si>
-    <t>Health Diagnostics Funding ($$)</t>
-  </si>
-  <si>
-    <t>Information Technology and Software Funding ($$)</t>
-  </si>
-  <si>
-    <t>Medical Funding ($$)</t>
-  </si>
-  <si>
-    <t>Neuroscience Funding ($$)</t>
-  </si>
-  <si>
-    <t>Other Funding ($$)</t>
-  </si>
-  <si>
-    <t>Pharmaceuticals and Therapeutics Funding ($$)</t>
+    <t>Funding Category</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Health Diagnostics</t>
+  </si>
+  <si>
+    <t>Information Technology and Software</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Neuroscience</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pharmaceuticals and Therapeutics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -437,27 +438,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="48">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>41640</v>
       </c>
@@ -468,7 +472,7 @@
         <v>44759680</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>42005</v>
       </c>
@@ -479,7 +483,7 @@
         <v>399852414</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>42370</v>
       </c>
@@ -490,7 +494,7 @@
         <v>133745609</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>42736</v>
       </c>
@@ -501,7 +505,7 @@
         <v>1376412042</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>43101</v>
       </c>
@@ -512,7 +516,7 @@
         <v>859049341</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>41640</v>
       </c>
@@ -523,7 +527,7 @@
         <v>925789024</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>42005</v>
       </c>
@@ -534,7 +538,7 @@
         <v>615538438</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>42370</v>
       </c>
@@ -545,7 +549,7 @@
         <v>1996757954</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>42736</v>
       </c>
@@ -556,7 +560,7 @@
         <v>5355894329</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>43101</v>
       </c>
@@ -567,334 +571,334 @@
         <v>1902595509</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
+    <row r="12" spans="1:3" ht="32">
       <c r="A12" s="2">
         <v>41640</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>349959998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45">
+        <v>319292699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32">
       <c r="A13" s="2">
         <v>42005</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>656076990</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45">
+        <v>1305986941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32">
       <c r="A14" s="2">
         <v>42370</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>286154956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45">
+        <v>1004203752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32">
       <c r="A15" s="2">
         <v>42736</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>2611935612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45">
+        <v>1365018896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32">
       <c r="A16" s="2">
         <v>43101</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>1022494350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="75">
+        <v>727332187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>41640</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>202735256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="75">
+        <v>349959998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>42005</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>46362002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="75">
+        <v>656076990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>42370</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>425395979</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75">
+        <v>286154956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>42736</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>191704743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="75">
+        <v>2611935612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>43101</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>547441160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+        <v>1022494350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32">
       <c r="A22" s="2">
         <v>41640</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>868988712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30">
+        <v>202735256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32">
       <c r="A23" s="2">
         <v>42005</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>1020692062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
+        <v>46362002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32">
       <c r="A24" s="2">
         <v>42370</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>1198800692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30">
+        <v>425395979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="32">
       <c r="A25" s="2">
         <v>42736</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>4129019711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
+        <v>191704743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32">
       <c r="A26" s="2">
         <v>43101</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>1799469087</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45">
+        <v>547441160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>41640</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45">
+        <v>868988712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>42005</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45">
+        <v>1020692062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>42370</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>22950980</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="45">
+        <v>1198800692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>42736</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>141000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="45">
+        <v>4129019711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>43101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>57328160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30">
+        <v>1799469087</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>41640</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>73405500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>42005</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>201292849</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>42370</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>61241489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30">
+        <v>22950980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>42736</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35">
-        <v>326954110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="30">
+        <v>141000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>43101</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>6490000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="75">
+        <v>57328160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>41640</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>319292699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="75">
+        <v>73405500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>42005</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>1305986941</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="75">
+        <v>201292849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>42370</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>1004203752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="75">
+        <v>61241489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>42736</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>1365018896</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="75">
+        <v>326954110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>43101</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>727332187</v>
+        <v>6490000</v>
       </c>
     </row>
   </sheetData>
